--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Phrase</t>
   </si>
@@ -38,6 +38,18 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Example Sentence</t>
+  </si>
+  <si>
+    <t>all along</t>
+  </si>
+  <si>
+    <t>自始至终，一直</t>
+  </si>
+  <si>
+    <t>I knew it all along.</t>
+  </si>
+  <si>
     <t>among other things</t>
   </si>
   <si>
@@ -47,6 +59,15 @@
     <t>用于表示某事物或情况不仅仅包括所提到的内容，还包括其他方面</t>
   </si>
   <si>
+    <t>at the speed of</t>
+  </si>
+  <si>
+    <t>以…的速度</t>
+  </si>
+  <si>
+    <t>AI video generation is advancing at the speed of light.</t>
+  </si>
+  <si>
     <t>be meant to</t>
   </si>
   <si>
@@ -56,6 +77,69 @@
     <t>表示某事是命中注定或计划好的，通常用于描述某人或某事的目的或预期结果</t>
   </si>
   <si>
+    <t>be named after</t>
+  </si>
+  <si>
+    <t>以…命名</t>
+  </si>
+  <si>
+    <t>brag about</t>
+  </si>
+  <si>
+    <t>吹嘘、夸耀</t>
+  </si>
+  <si>
+    <t>表示过分或虚假地表达自己的成就或优点</t>
+  </si>
+  <si>
+    <t>co-direct</t>
+  </si>
+  <si>
+    <t>共同执导</t>
+  </si>
+  <si>
+    <t>come with being</t>
+  </si>
+  <si>
+    <t>随着……而来</t>
+  </si>
+  <si>
+    <t>指某种情况或状态伴随着某种经历或身份而自然发生。</t>
+  </si>
+  <si>
+    <t>commit to</t>
+  </si>
+  <si>
+    <t>承诺、致力于、投入、专注于</t>
+  </si>
+  <si>
+    <t>表示对某事物或某人的决心和承诺，通常表示愿意为之付出时间、精力或资源</t>
+  </si>
+  <si>
+    <t>critical window</t>
+  </si>
+  <si>
+    <t>关键期</t>
+  </si>
+  <si>
+    <t>for almost as long</t>
+  </si>
+  <si>
+    <t>几乎同样长的时间里</t>
+  </si>
+  <si>
+    <t>可以用它来避免重复说完整数字，显得自然口语化</t>
+  </si>
+  <si>
+    <t>for eons</t>
+  </si>
+  <si>
+    <t>千百万年来、极其漫长的时间以来</t>
+  </si>
+  <si>
+    <t>[ˈiːən /]</t>
+  </si>
+  <si>
     <t>for the sake of performance</t>
   </si>
   <si>
@@ -80,6 +164,24 @@
     <t>指为达到某个目的而付出极大的努力和付出</t>
   </si>
   <si>
+    <t>happen to be</t>
+  </si>
+  <si>
+    <t>碰巧是</t>
+  </si>
+  <si>
+    <t>Kuhl and Meltzoff, who happen to be married, share a certain glamour that comes with being at the top of their fields in a science ripe for breakthroughs.</t>
+  </si>
+  <si>
+    <t>hook up</t>
+  </si>
+  <si>
+    <t>连接、搭讪、提供帮助</t>
+  </si>
+  <si>
+    <t>指在物理上或功能上将两个或多个设备、系统或组件连接在一起或指为某人提供帮助、支持或资源</t>
+  </si>
+  <si>
     <t>in a nutshell</t>
   </si>
   <si>
@@ -95,12 +197,6 @@
     <t>[əˈbriːvieɪtɪd]</t>
   </si>
   <si>
-    <t>be named after</t>
-  </si>
-  <si>
-    <t>以……命名</t>
-  </si>
-  <si>
     <t>net result</t>
   </si>
   <si>
@@ -119,7 +215,13 @@
     <t>open-ended</t>
   </si>
   <si>
-    <t>开放式的</t>
+    <t>开放式的、无限制的</t>
+  </si>
+  <si>
+    <t>[bjʊˈrɑːkrəsi]</t>
+  </si>
+  <si>
+    <t>Open-ended demands are a mandate for ever-expanding government bureaucracies with ever-expanding budgets and powers.</t>
   </si>
   <si>
     <t>over time</t>
@@ -141,6 +243,42 @@
   </si>
   <si>
     <t>[ræmp]</t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>[ɪˈsteɪt]</t>
+  </si>
+  <si>
+    <t>resonance imaging</t>
+  </si>
+  <si>
+    <t>共振成像</t>
+  </si>
+  <si>
+    <t>[ˈrezənəns]</t>
+  </si>
+  <si>
+    <t>ripe for</t>
+  </si>
+  <si>
+    <t>发展到适合某事发生的条件</t>
+  </si>
+  <si>
+    <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：时可能发生重大突破</t>
+  </si>
+  <si>
+    <t>stick sth out</t>
+  </si>
+  <si>
+    <t>伸出某物、坚持下去</t>
+  </si>
+  <si>
+    <t>指将某物从表面或边缘伸出来或指继续做某事，尽管可能困难或不愉快</t>
   </si>
   <si>
     <t>the world is awash in questions</t>
@@ -180,13 +318,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF101214"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -653,139 +797,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1320,20 +1473,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.375" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,176 +1499,349 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:4">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D34">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Phrase</t>
   </si>
   <si>
-    <t>Chinese</t>
+    <t>x</t>
   </si>
   <si>
     <t>Comment</t>
@@ -104,7 +104,7 @@
     <t>随着……而来</t>
   </si>
   <si>
-    <t>指某种情况或状态伴随着某种经历或身份而自然发生。</t>
+    <t>指某种情况或状态伴随着某种经历或身份而自然发生</t>
   </si>
   <si>
     <t>commit to</t>
@@ -122,6 +122,18 @@
     <t>关键期</t>
   </si>
   <si>
+    <t>dive right into</t>
+  </si>
+  <si>
+    <t>立即投入</t>
+  </si>
+  <si>
+    <t>指迅速开始做某事，不浪费时间</t>
+  </si>
+  <si>
+    <t>You can start with the tutorial or dive right into more detailed documentation.</t>
+  </si>
+  <si>
     <t>for almost as long</t>
   </si>
   <si>
@@ -146,6 +158,15 @@
     <t>出于性能考虑</t>
   </si>
   <si>
+    <t>from scratch</t>
+  </si>
+  <si>
+    <t>从零开始、白手起家</t>
+  </si>
+  <si>
+    <t>I learned German from scratch in six months.</t>
+  </si>
+  <si>
     <t>given that</t>
   </si>
   <si>
@@ -281,6 +302,15 @@
     <t>指将某物从表面或边缘伸出来或指继续做某事，尽管可能困难或不愉快</t>
   </si>
   <si>
+    <t>sweep you off your feet</t>
+  </si>
+  <si>
+    <t>迷倒某人、使某人神魂颠倒</t>
+  </si>
+  <si>
+    <t>Valentine will sweep you off your feet.</t>
+  </si>
+  <si>
     <t>the world is awash in questions</t>
   </si>
   <si>
@@ -302,10 +332,70 @@
     <t>为了表达我的不满</t>
   </si>
   <si>
+    <t>turn ... upside down</t>
+  </si>
+  <si>
+    <t>翻转、颠覆</t>
+  </si>
+  <si>
+    <t>President Trump’s Justice Department is turning civil rights enforcement upside down.</t>
+  </si>
+  <si>
+    <t>with ... for scale</t>
+  </si>
+  <si>
+    <t>用…当作比例参考</t>
+  </si>
+  <si>
+    <t>用于直观体现物体的大小、壮观、规模感</t>
+  </si>
+  <si>
+    <t>Starship with humans for scale.</t>
+  </si>
+  <si>
     <t>zip code</t>
   </si>
   <si>
     <t>邮政编码</t>
+  </si>
+  <si>
+    <t>on the fly</t>
+  </si>
+  <si>
+    <t>即时地、动态地</t>
+  </si>
+  <si>
+    <t>边运行边处理，而不是预先准备好的</t>
+  </si>
+  <si>
+    <t>The API is created on the fly, no code generation necessary.</t>
+  </si>
+  <si>
+    <t>got both</t>
+  </si>
+  <si>
+    <t>两者都有</t>
+  </si>
+  <si>
+    <t>表示拥有两个或两种事物</t>
+  </si>
+  <si>
+    <t>many years' worth of ...</t>
+  </si>
+  <si>
+    <t>许多年来累积的…</t>
+  </si>
+  <si>
+    <t>It's been solving many years’ worth of database-schema problems.</t>
+  </si>
+  <si>
+    <t>strive to</t>
+  </si>
+  <si>
+    <t>尽力做某事</t>
+  </si>
+  <si>
+    <t>Django's template system has several powerful features but strives to stay simple enough for non-programmers to use.</t>
   </si>
 </sst>
 </file>
@@ -927,15 +1017,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1473,12 +1560,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1510,7 +1597,6 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1619,6 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1616,231 +1701,339 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:3">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:4">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:4">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D34">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Phrase</t>
   </si>
@@ -396,6 +396,24 @@
   </si>
   <si>
     <t>Django's template system has several powerful features but strives to stay simple enough for non-programmers to use.</t>
+  </si>
+  <si>
+    <t>cascading waterfalls</t>
+  </si>
+  <si>
+    <t>瀑布</t>
+  </si>
+  <si>
+    <t>be endowed with</t>
+  </si>
+  <si>
+    <t>具有某种特定的品质或特征</t>
+  </si>
+  <si>
+    <t>指某人或某物天生或被赋予了某种特定的品质或特征</t>
+  </si>
+  <si>
+    <t>Sri Lanka's tea country is endowed with cascading waterfalls, rising mountain tops, natural beauty and diverse flora and fauna.</t>
   </si>
 </sst>
 </file>
@@ -1560,12 +1578,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2031,6 +2049,28 @@
         <v>122</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D39">
     <sortCondition ref="A2:A39"/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="phrase" sheetId="1" r:id="rId1"/>
+    <sheet name="word" sheetId="2" r:id="rId1"/>
+    <sheet name="phrase" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>phonetic symbol</t>
+  </si>
+  <si>
+    <t>curiosity</t>
+  </si>
+  <si>
+    <t>/ˌkjʊriˈɑːsəti/</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>/ˈʒɑːnrə/</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>/ˈkjʊriəs/</t>
+  </si>
+  <si>
+    <t>modular</t>
+  </si>
+  <si>
+    <t>/ˈmɑːdʒələr/</t>
+  </si>
   <si>
     <t>Phrase</t>
   </si>
@@ -414,6 +445,150 @@
   </si>
   <si>
     <t>Sri Lanka's tea country is endowed with cascading waterfalls, rising mountain tops, natural beauty and diverse flora and fauna.</t>
+  </si>
+  <si>
+    <t>for quite some time</t>
+  </si>
+  <si>
+    <t>相当长的一段时间</t>
+  </si>
+  <si>
+    <t>I’ve been programming games for quite some time, but started using Unity only relatively recently.</t>
+  </si>
+  <si>
+    <t>show ... age</t>
+  </si>
+  <si>
+    <t>显得过时、老旧</t>
+  </si>
+  <si>
+    <t>As those tools started to show their age, I kept looking for better ways to develop games.</t>
+  </si>
+  <si>
+    <t>come full circle</t>
+  </si>
+  <si>
+    <t>兜了一圈回到原点、实现了闭环</t>
+  </si>
+  <si>
+    <t>指事情经过变化后回归本质，但有了提升或扩展</t>
+  </si>
+  <si>
+    <t>And then we came full circle because Unity enabled us to deploy to the web in addition to mobile, all from one codebase.</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>忍受、容忍</t>
+  </si>
+  <si>
+    <t>For me, learning how to develop games meant putting up with a lot of hassle.</t>
+  </si>
+  <si>
+    <t>be indebted to</t>
+  </si>
+  <si>
+    <t>感激、感恩</t>
+  </si>
+  <si>
+    <t>[ɪnˈdetɪd]</t>
+  </si>
+  <si>
+    <t>I am also indebted to the community at the Game Development site on Stack Exchange</t>
+  </si>
+  <si>
+    <t>every few</t>
+  </si>
+  <si>
+    <t>每隔几个</t>
+  </si>
+  <si>
+    <t>We’ll go through a selection of projects every few chapters, rather than one monolithic project developed over the entire book.</t>
+  </si>
+  <si>
+    <t>water down</t>
+  </si>
+  <si>
+    <t>稀释</t>
+  </si>
+  <si>
+    <t>As for other aspects of game development, extensive coverage of art disciplines would water down how much the book can cover and would be largely about software external to Unity (for example, the animation software used).</t>
+  </si>
+  <si>
+    <t>set ... off</t>
+  </si>
+  <si>
+    <t>突出、凸显</t>
+  </si>
+  <si>
+    <t>All the source code in the book, whether in code listings or snippets, is in `a fixed-width font like this`, which sets it off from the surrounding text.</t>
+  </si>
+  <si>
+    <t>dress code</t>
+  </si>
+  <si>
+    <t>着装规范</t>
+  </si>
+  <si>
+    <t>at the time</t>
+  </si>
+  <si>
+    <t>在当时</t>
+  </si>
+  <si>
+    <t>fade away</t>
+  </si>
+  <si>
+    <t>逐渐消失</t>
+  </si>
+  <si>
+    <t>tell apart from</t>
+  </si>
+  <si>
+    <t>区分、辨别</t>
+  </si>
+  <si>
+    <t>It is now hard to tell the inhabitant of one continent apart from another.</t>
+  </si>
+  <si>
+    <t>trade for</t>
+  </si>
+  <si>
+    <t>用…交换…</t>
+  </si>
+  <si>
+    <t>Perhaps, trying to view it optimistically, we have traded a cultural and visual diversity for a more varied personal life, or a more varied and interesting intellectual and technical life.</t>
+  </si>
+  <si>
+    <t>onward to</t>
+  </si>
+  <si>
+    <t>继续前往</t>
+  </si>
+  <si>
+    <t>注意 onward to 并不是传统意义上的固定搭配而是省略动词的感叹/号召式表达，属于惯用修辞</t>
+  </si>
+  <si>
+    <t>Onward to chapter 1! (Let’s go onward to chapter 1!)</t>
+  </si>
+  <si>
+    <t>a plethora of</t>
+  </si>
+  <si>
+    <t>大量的、丰富的</t>
+  </si>
+  <si>
+    <t>/ ˈpleθərə /</t>
+  </si>
+  <si>
+    <t>be saddled with</t>
+  </si>
+  <si>
+    <t>受…所拖累、被迫负担、承担</t>
+  </si>
+  <si>
+    <t>Most other game development tools that have a central visual editor are also saddled with limited and inflexible scripting support, but Unity doesn’t suffer from that disadvantage.</t>
   </si>
 </sst>
 </file>
@@ -426,7 +601,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +612,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF101214"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1115"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -905,141 +1086,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1578,12 +1768,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1596,479 +1847,655 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:4">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:4">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>word</t>
   </si>
@@ -60,6 +60,18 @@
     <t>/ˈmɑːdʒələr/</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>descendant</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -589,6 +601,27 @@
   </si>
   <si>
     <t>Most other game development tools that have a central visual editor are also saddled with limited and inflexible scripting support, but Unity doesn’t suffer from that disadvantage.</t>
+  </si>
+  <si>
+    <t>under the hood</t>
+  </si>
+  <si>
+    <t>在表面之下</t>
+  </si>
+  <si>
+    <t>指在某物的内部工作过程中</t>
+  </si>
+  <si>
+    <t>How does it work under the hood?</t>
+  </si>
+  <si>
+    <t>resort to</t>
+  </si>
+  <si>
+    <t>诉诸，求助于</t>
+  </si>
+  <si>
+    <t>You might have to resort to using inline styles if your working environment is very restrictive.</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,9 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1768,13 +1798,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -1816,8 +1846,28 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1829,12 +1879,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1847,655 +1897,680 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:4">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>word</t>
   </si>
@@ -72,6 +72,24 @@
     <t>descendant</t>
   </si>
   <si>
+    <t>indices</t>
+  </si>
+  <si>
+    <t>/ˈɪndɪsiːz/</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>/baɪnd/</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>/baʊnd/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -622,6 +640,45 @@
   </si>
   <si>
     <t>You might have to resort to using inline styles if your working environment is very restrictive.</t>
+  </si>
+  <si>
+    <t>so much that</t>
+  </si>
+  <si>
+    <t>以至于</t>
+  </si>
+  <si>
+    <t>是一个常用的程度状语从句结构，用于强调前面所述动作或状态的极高程度，并表示这种程度所导致的直接结果</t>
+  </si>
+  <si>
+    <t>I'm a big fan of resetting box-sizing to border-box, so much that we have a special day of the year around here.</t>
+  </si>
+  <si>
+    <t>around here</t>
+  </si>
+  <si>
+    <t>在我们这儿</t>
+  </si>
+  <si>
+    <t>可以指物理区域：“Is there a good coffee shop around here?”，也可以指指工作或社交环境：“That’s how we do things around here.”。</t>
+  </si>
+  <si>
+    <t>credit on ... to sb</t>
+  </si>
+  <si>
+    <t>将关于（某事物）的功劳归于某人</t>
+  </si>
+  <si>
+    <t>Credit on the inheritance idea to Jon Neal.</t>
+  </si>
+  <si>
+    <t>bounded by</t>
+  </si>
+  <si>
+    <t>由/被…所界定</t>
+  </si>
+  <si>
+    <t>The margin area, bounded by the margin edge, extends the border area to include an empty area used to separate the element from its neighbors.</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,6 +1321,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1798,10 +1858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1870,6 +1930,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" ht="15" spans="1:2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1879,12 +1963,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1897,680 +1981,728 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:4">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>word</t>
   </si>
@@ -90,6 +90,18 @@
     <t>/baʊnd/</t>
   </si>
   <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>/stretʃ/</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>/skrætʃ/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -223,6 +235,9 @@
   </si>
   <si>
     <t>从零开始、白手起家</t>
+  </si>
+  <si>
+    <t>旧时的体育竞赛中人们会在地面上划一条线作为起点，这条线就是 scratch（用指甲或棍子“划”出来的）</t>
   </si>
   <si>
     <t>I learned German from scratch in six months.</t>
@@ -1858,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1942,7 +1957,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1950,8 +1965,24 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1965,10 +1996,10 @@
   <sheetPr/>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1981,728 +2012,731 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:4">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:4">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>word</t>
   </si>
@@ -102,10 +102,46 @@
     <t>/skrætʃ/</t>
   </si>
   <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>/ˈaɪsəleɪt/</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>/ˈaɪsəleɪtɪd/</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>/əˈses/</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>/ˈækses/</t>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>/ˌækəˈdemɪk/</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>/ˈælɡərɪðəm/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Chinese</t>
   </si>
   <si>
     <t>Comment</t>
@@ -114,6 +150,15 @@
     <t>Example Sentence</t>
   </si>
   <si>
+    <t>a plethora of</t>
+  </si>
+  <si>
+    <t>大量的、丰富的</t>
+  </si>
+  <si>
+    <t>/ ˈpleθərə /</t>
+  </si>
+  <si>
     <t>all along</t>
   </si>
   <si>
@@ -132,6 +177,30 @@
     <t>用于表示某事物或情况不仅仅包括所提到的内容，还包括其他方面</t>
   </si>
   <si>
+    <t>apply to</t>
+  </si>
+  <si>
+    <t>适用于</t>
+  </si>
+  <si>
+    <t>around here</t>
+  </si>
+  <si>
+    <t>在我们这儿</t>
+  </si>
+  <si>
+    <t>可以指物理区域：“Is there a good coffee shop around here?”，也可以指工作或社交环境：“That’s how we do things around here.”。</t>
+  </si>
+  <si>
+    <t>as a whole</t>
+  </si>
+  <si>
+    <t>作为一个整体</t>
+  </si>
+  <si>
+    <t>The CSS box model as a whole applies to block boxes and defines how the different parts of a box — margin, border, padding, and content — work together to create a box that you can see on a page.</t>
+  </si>
+  <si>
     <t>at the speed of</t>
   </si>
   <si>
@@ -141,6 +210,36 @@
     <t>AI video generation is advancing at the speed of light.</t>
   </si>
   <si>
+    <t>at the time</t>
+  </si>
+  <si>
+    <t>在当时</t>
+  </si>
+  <si>
+    <t>be endowed with</t>
+  </si>
+  <si>
+    <t>具有某种特定的品质或特征</t>
+  </si>
+  <si>
+    <t>指某人或某物天生或被赋予了某种特定的品质或特征</t>
+  </si>
+  <si>
+    <t>Sri Lanka's tea country is endowed with cascading waterfalls, rising mountain tops, natural beauty and diverse flora and fauna.</t>
+  </si>
+  <si>
+    <t>be indebted to</t>
+  </si>
+  <si>
+    <t>感激、感恩</t>
+  </si>
+  <si>
+    <t>[ɪnˈdetɪd]</t>
+  </si>
+  <si>
+    <t>I am also indebted to the community at the Game Development site on Stack Exchange.</t>
+  </si>
+  <si>
     <t>be meant to</t>
   </si>
   <si>
@@ -156,6 +255,24 @@
     <t>以…命名</t>
   </si>
   <si>
+    <t>be saddled with</t>
+  </si>
+  <si>
+    <t>受…所拖累、被迫负担、承担</t>
+  </si>
+  <si>
+    <t>Most other game development tools that have a central visual editor are also saddled with limited and inflexible scripting support, but Unity doesn’t suffer from that disadvantage.</t>
+  </si>
+  <si>
+    <t>bounded by</t>
+  </si>
+  <si>
+    <t>由/被…所界定</t>
+  </si>
+  <si>
+    <t>The margin area, bounded by the margin edge, extends the border area to include an empty area used to separate the element from its neighbors.</t>
+  </si>
+  <si>
     <t>brag about</t>
   </si>
   <si>
@@ -165,12 +282,30 @@
     <t>表示过分或虚假地表达自己的成就或优点</t>
   </si>
   <si>
+    <t>cascading waterfalls</t>
+  </si>
+  <si>
+    <t>瀑布</t>
+  </si>
+  <si>
     <t>co-direct</t>
   </si>
   <si>
     <t>共同执导</t>
   </si>
   <si>
+    <t>come full circle</t>
+  </si>
+  <si>
+    <t>兜了一圈回到原点、实现了闭环</t>
+  </si>
+  <si>
+    <t>指事情经过变化后回归本质，但有了提升或扩展</t>
+  </si>
+  <si>
+    <t>And then we came full circle because Unity enabled us to deploy to the web in addition to mobile, all from one codebase.</t>
+  </si>
+  <si>
     <t>come with being</t>
   </si>
   <si>
@@ -189,6 +324,15 @@
     <t>表示对某事物或某人的决心和承诺，通常表示愿意为之付出时间、精力或资源</t>
   </si>
   <si>
+    <t>credit on ... to sb</t>
+  </si>
+  <si>
+    <t>将关于（某事物）的功劳归于某人</t>
+  </si>
+  <si>
+    <t>Credit on the inheritance idea to Jon Neal.</t>
+  </si>
+  <si>
     <t>critical window</t>
   </si>
   <si>
@@ -207,6 +351,27 @@
     <t>You can start with the tutorial or dive right into more detailed documentation.</t>
   </si>
   <si>
+    <t>dress code</t>
+  </si>
+  <si>
+    <t>着装规范</t>
+  </si>
+  <si>
+    <t>every few</t>
+  </si>
+  <si>
+    <t>每隔几个</t>
+  </si>
+  <si>
+    <t>We’ll go through a selection of projects every few chapters, rather than one monolithic project developed over the entire book.</t>
+  </si>
+  <si>
+    <t>fade away</t>
+  </si>
+  <si>
+    <t>逐渐消失</t>
+  </si>
+  <si>
     <t>for almost as long</t>
   </si>
   <si>
@@ -225,6 +390,15 @@
     <t>[ˈiːən /]</t>
   </si>
   <si>
+    <t>for quite some time</t>
+  </si>
+  <si>
+    <t>相当长的一段时间</t>
+  </si>
+  <si>
+    <t>I’ve been programming games for quite some time, but started using Unity only relatively recently.</t>
+  </si>
+  <si>
     <t>for the sake of performance</t>
   </si>
   <si>
@@ -261,6 +435,15 @@
     <t>指为达到某个目的而付出极大的努力和付出</t>
   </si>
   <si>
+    <t>got both</t>
+  </si>
+  <si>
+    <t>两者都有</t>
+  </si>
+  <si>
+    <t>表示拥有两个或两种事物</t>
+  </si>
+  <si>
     <t>happen to be</t>
   </si>
   <si>
@@ -294,6 +477,15 @@
     <t>[əˈbriːvieɪtɪd]</t>
   </si>
   <si>
+    <t>many years' worth of ...</t>
+  </si>
+  <si>
+    <t>许多年来累积的…</t>
+  </si>
+  <si>
+    <t>It's been solving many years’ worth of database-schema problems.</t>
+  </si>
+  <si>
     <t>net result</t>
   </si>
   <si>
@@ -309,6 +501,30 @@
     <t>跑题</t>
   </si>
   <si>
+    <t>on the fly</t>
+  </si>
+  <si>
+    <t>即时地、动态地</t>
+  </si>
+  <si>
+    <t>边运行边处理，而不是预先准备好的</t>
+  </si>
+  <si>
+    <t>The API is created on the fly, no code generation necessary.</t>
+  </si>
+  <si>
+    <t>onward to</t>
+  </si>
+  <si>
+    <t>继续前往</t>
+  </si>
+  <si>
+    <t>注意 onward to 并不是传统意义上的固定搭配而是省略动词的感叹/号召式表达，属于惯用修辞</t>
+  </si>
+  <si>
+    <t>Onward to chapter 1! (Let’s go onward to chapter 1!)</t>
+  </si>
+  <si>
     <t>open-ended</t>
   </si>
   <si>
@@ -327,6 +543,24 @@
     <t>随着时间的推移</t>
   </si>
   <si>
+    <t>postal code</t>
+  </si>
+  <si>
+    <t>邮政编码</t>
+  </si>
+  <si>
+    <t>美国用 zip code 表示邮政编码，其中 zip 是 Zone Improvement Plan 的首字母缩写</t>
+  </si>
+  <si>
+    <t>put up with</t>
+  </si>
+  <si>
+    <t>忍受、容忍</t>
+  </si>
+  <si>
+    <t>For me, learning how to develop games meant putting up with a lot of hassle.</t>
+  </si>
+  <si>
     <t>quite the contrary</t>
   </si>
   <si>
@@ -360,13 +594,52 @@
     <t>[ˈrezənəns]</t>
   </si>
   <si>
+    <t>resort to</t>
+  </si>
+  <si>
+    <t>诉诸，求助于</t>
+  </si>
+  <si>
+    <t>You might have to resort to using inline styles if your working environment is very restrictive.</t>
+  </si>
+  <si>
     <t>ripe for</t>
   </si>
   <si>
     <t>发展到适合某事发生的条件</t>
   </si>
   <si>
-    <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：时可能发生重大突破</t>
+    <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：随时可能发生重大突破</t>
+  </si>
+  <si>
+    <t>set ... off</t>
+  </si>
+  <si>
+    <t>突出、凸显</t>
+  </si>
+  <si>
+    <t>All the source code in the book, whether in code listings or snippets, is in `a fixed-width font like this`, which sets it off from the surrounding text.</t>
+  </si>
+  <si>
+    <t>show ... age</t>
+  </si>
+  <si>
+    <t>显得过时、老旧</t>
+  </si>
+  <si>
+    <t>As those tools started to show their age, I kept looking for better ways to develop games.</t>
+  </si>
+  <si>
+    <t>so much that</t>
+  </si>
+  <si>
+    <t>以至于</t>
+  </si>
+  <si>
+    <t>是一个常用的程度状语从句结构，用于强调前面所述动作或状态的极高程度，并表示这种程度所导致的直接结果</t>
+  </si>
+  <si>
+    <t>I'm a big fan of resetting box-sizing to border-box, so much that we have a special day of the year around here.</t>
   </si>
   <si>
     <t>stick sth out</t>
@@ -378,6 +651,15 @@
     <t>指将某物从表面或边缘伸出来或指继续做某事，尽管可能困难或不愉快</t>
   </si>
   <si>
+    <t>strive to</t>
+  </si>
+  <si>
+    <t>尽力做某事</t>
+  </si>
+  <si>
+    <t>Django's template system has several powerful features but strives to stay simple enough for non-programmers to use.</t>
+  </si>
+  <si>
     <t>sweep you off your feet</t>
   </si>
   <si>
@@ -387,6 +669,15 @@
     <t>Valentine will sweep you off your feet.</t>
   </si>
   <si>
+    <t>tell ... apart from</t>
+  </si>
+  <si>
+    <t>区分、辨别</t>
+  </si>
+  <si>
+    <t>It is now hard to tell the inhabitant of one continent apart from another.</t>
+  </si>
+  <si>
     <t>the world is awash in questions</t>
   </si>
   <si>
@@ -408,6 +699,15 @@
     <t>为了表达我的不满</t>
   </si>
   <si>
+    <t>trade for</t>
+  </si>
+  <si>
+    <t>用…交换…</t>
+  </si>
+  <si>
+    <t>Perhaps, trying to view it optimistically, we have traded a cultural and visual diversity for a more varied personal life, or a more varied and interesting intellectual and technical life.</t>
+  </si>
+  <si>
     <t>turn ... upside down</t>
   </si>
   <si>
@@ -417,6 +717,27 @@
     <t>President Trump’s Justice Department is turning civil rights enforcement upside down.</t>
   </si>
   <si>
+    <t>under the hood</t>
+  </si>
+  <si>
+    <t>在表面之下</t>
+  </si>
+  <si>
+    <t>指在某物的内部工作过程中</t>
+  </si>
+  <si>
+    <t>How does it work under the hood?</t>
+  </si>
+  <si>
+    <t>water down</t>
+  </si>
+  <si>
+    <t>稀释</t>
+  </si>
+  <si>
+    <t>As for other aspects of game development, extensive coverage of art disciplines would water down how much the book can cover and would be largely about software external to Unity (for example, the animation software used).</t>
+  </si>
+  <si>
     <t>with ... for scale</t>
   </si>
   <si>
@@ -427,273 +748,6 @@
   </si>
   <si>
     <t>Starship with humans for scale.</t>
-  </si>
-  <si>
-    <t>zip code</t>
-  </si>
-  <si>
-    <t>邮政编码</t>
-  </si>
-  <si>
-    <t>on the fly</t>
-  </si>
-  <si>
-    <t>即时地、动态地</t>
-  </si>
-  <si>
-    <t>边运行边处理，而不是预先准备好的</t>
-  </si>
-  <si>
-    <t>The API is created on the fly, no code generation necessary.</t>
-  </si>
-  <si>
-    <t>got both</t>
-  </si>
-  <si>
-    <t>两者都有</t>
-  </si>
-  <si>
-    <t>表示拥有两个或两种事物</t>
-  </si>
-  <si>
-    <t>many years' worth of ...</t>
-  </si>
-  <si>
-    <t>许多年来累积的…</t>
-  </si>
-  <si>
-    <t>It's been solving many years’ worth of database-schema problems.</t>
-  </si>
-  <si>
-    <t>strive to</t>
-  </si>
-  <si>
-    <t>尽力做某事</t>
-  </si>
-  <si>
-    <t>Django's template system has several powerful features but strives to stay simple enough for non-programmers to use.</t>
-  </si>
-  <si>
-    <t>cascading waterfalls</t>
-  </si>
-  <si>
-    <t>瀑布</t>
-  </si>
-  <si>
-    <t>be endowed with</t>
-  </si>
-  <si>
-    <t>具有某种特定的品质或特征</t>
-  </si>
-  <si>
-    <t>指某人或某物天生或被赋予了某种特定的品质或特征</t>
-  </si>
-  <si>
-    <t>Sri Lanka's tea country is endowed with cascading waterfalls, rising mountain tops, natural beauty and diverse flora and fauna.</t>
-  </si>
-  <si>
-    <t>for quite some time</t>
-  </si>
-  <si>
-    <t>相当长的一段时间</t>
-  </si>
-  <si>
-    <t>I’ve been programming games for quite some time, but started using Unity only relatively recently.</t>
-  </si>
-  <si>
-    <t>show ... age</t>
-  </si>
-  <si>
-    <t>显得过时、老旧</t>
-  </si>
-  <si>
-    <t>As those tools started to show their age, I kept looking for better ways to develop games.</t>
-  </si>
-  <si>
-    <t>come full circle</t>
-  </si>
-  <si>
-    <t>兜了一圈回到原点、实现了闭环</t>
-  </si>
-  <si>
-    <t>指事情经过变化后回归本质，但有了提升或扩展</t>
-  </si>
-  <si>
-    <t>And then we came full circle because Unity enabled us to deploy to the web in addition to mobile, all from one codebase.</t>
-  </si>
-  <si>
-    <t>put up with</t>
-  </si>
-  <si>
-    <t>忍受、容忍</t>
-  </si>
-  <si>
-    <t>For me, learning how to develop games meant putting up with a lot of hassle.</t>
-  </si>
-  <si>
-    <t>be indebted to</t>
-  </si>
-  <si>
-    <t>感激、感恩</t>
-  </si>
-  <si>
-    <t>[ɪnˈdetɪd]</t>
-  </si>
-  <si>
-    <t>I am also indebted to the community at the Game Development site on Stack Exchange</t>
-  </si>
-  <si>
-    <t>every few</t>
-  </si>
-  <si>
-    <t>每隔几个</t>
-  </si>
-  <si>
-    <t>We’ll go through a selection of projects every few chapters, rather than one monolithic project developed over the entire book.</t>
-  </si>
-  <si>
-    <t>water down</t>
-  </si>
-  <si>
-    <t>稀释</t>
-  </si>
-  <si>
-    <t>As for other aspects of game development, extensive coverage of art disciplines would water down how much the book can cover and would be largely about software external to Unity (for example, the animation software used).</t>
-  </si>
-  <si>
-    <t>set ... off</t>
-  </si>
-  <si>
-    <t>突出、凸显</t>
-  </si>
-  <si>
-    <t>All the source code in the book, whether in code listings or snippets, is in `a fixed-width font like this`, which sets it off from the surrounding text.</t>
-  </si>
-  <si>
-    <t>dress code</t>
-  </si>
-  <si>
-    <t>着装规范</t>
-  </si>
-  <si>
-    <t>at the time</t>
-  </si>
-  <si>
-    <t>在当时</t>
-  </si>
-  <si>
-    <t>fade away</t>
-  </si>
-  <si>
-    <t>逐渐消失</t>
-  </si>
-  <si>
-    <t>tell apart from</t>
-  </si>
-  <si>
-    <t>区分、辨别</t>
-  </si>
-  <si>
-    <t>It is now hard to tell the inhabitant of one continent apart from another.</t>
-  </si>
-  <si>
-    <t>trade for</t>
-  </si>
-  <si>
-    <t>用…交换…</t>
-  </si>
-  <si>
-    <t>Perhaps, trying to view it optimistically, we have traded a cultural and visual diversity for a more varied personal life, or a more varied and interesting intellectual and technical life.</t>
-  </si>
-  <si>
-    <t>onward to</t>
-  </si>
-  <si>
-    <t>继续前往</t>
-  </si>
-  <si>
-    <t>注意 onward to 并不是传统意义上的固定搭配而是省略动词的感叹/号召式表达，属于惯用修辞</t>
-  </si>
-  <si>
-    <t>Onward to chapter 1! (Let’s go onward to chapter 1!)</t>
-  </si>
-  <si>
-    <t>a plethora of</t>
-  </si>
-  <si>
-    <t>大量的、丰富的</t>
-  </si>
-  <si>
-    <t>/ ˈpleθərə /</t>
-  </si>
-  <si>
-    <t>be saddled with</t>
-  </si>
-  <si>
-    <t>受…所拖累、被迫负担、承担</t>
-  </si>
-  <si>
-    <t>Most other game development tools that have a central visual editor are also saddled with limited and inflexible scripting support, but Unity doesn’t suffer from that disadvantage.</t>
-  </si>
-  <si>
-    <t>under the hood</t>
-  </si>
-  <si>
-    <t>在表面之下</t>
-  </si>
-  <si>
-    <t>指在某物的内部工作过程中</t>
-  </si>
-  <si>
-    <t>How does it work under the hood?</t>
-  </si>
-  <si>
-    <t>resort to</t>
-  </si>
-  <si>
-    <t>诉诸，求助于</t>
-  </si>
-  <si>
-    <t>You might have to resort to using inline styles if your working environment is very restrictive.</t>
-  </si>
-  <si>
-    <t>so much that</t>
-  </si>
-  <si>
-    <t>以至于</t>
-  </si>
-  <si>
-    <t>是一个常用的程度状语从句结构，用于强调前面所述动作或状态的极高程度，并表示这种程度所导致的直接结果</t>
-  </si>
-  <si>
-    <t>I'm a big fan of resetting box-sizing to border-box, so much that we have a special day of the year around here.</t>
-  </si>
-  <si>
-    <t>around here</t>
-  </si>
-  <si>
-    <t>在我们这儿</t>
-  </si>
-  <si>
-    <t>可以指物理区域：“Is there a good coffee shop around here?”，也可以指指工作或社交环境：“That’s how we do things around here.”。</t>
-  </si>
-  <si>
-    <t>credit on ... to sb</t>
-  </si>
-  <si>
-    <t>将关于（某事物）的功劳归于某人</t>
-  </si>
-  <si>
-    <t>Credit on the inheritance idea to Jon Neal.</t>
-  </si>
-  <si>
-    <t>bounded by</t>
-  </si>
-  <si>
-    <t>由/被…所界定</t>
-  </si>
-  <si>
-    <t>The margin area, bounded by the margin edge, extends the border area to include an empty area used to separate the element from its neighbors.</t>
   </si>
 </sst>
 </file>
@@ -1321,11 +1375,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1334,11 +1385,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1873,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1897,7 +1948,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1905,7 +1956,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1913,7 +1964,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1921,7 +1972,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1949,7 +2000,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1957,7 +2008,7 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1965,7 +2016,7 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1973,7 +2024,7 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1983,6 +2034,54 @@
       </c>
       <c r="B14" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1994,12 +2093,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2012,736 +2111,758 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:4">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:4">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>160</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>198</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>201</v>
+      </c>
+      <c r="C57" t="s">
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" t="s">
-        <v>198</v>
+        <v>211</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D64" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>230</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D39">
-    <sortCondition ref="A2:A39"/>
+  <sortState ref="A2:D69">
+    <sortCondition ref="A2:A69"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>word</t>
   </si>
@@ -138,6 +138,207 @@
     <t>/ˈælɡərɪðəm/</t>
   </si>
   <si>
+    <t>timely</t>
+  </si>
+  <si>
+    <t>idiosyncratic</t>
+  </si>
+  <si>
+    <t>/ˌɪdiəsɪŋˈkrætɪk/</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>/ˈpɑːrləmənt/</t>
+  </si>
+  <si>
+    <t>cellist</t>
+  </si>
+  <si>
+    <t>/ˈtʃelɪst/</t>
+  </si>
+  <si>
+    <t>facade</t>
+  </si>
+  <si>
+    <t>/fəˈsɑːd/</t>
+  </si>
+  <si>
+    <t>heir</t>
+  </si>
+  <si>
+    <t>/er/</t>
+  </si>
+  <si>
+    <t>niche</t>
+  </si>
+  <si>
+    <t>/niːʃ/</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>/spəˈsɪfɪk/</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>/ˈpenəlti/</t>
+  </si>
+  <si>
+    <t>penalize</t>
+  </si>
+  <si>
+    <t>/ˈpiːnəlaɪz/</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>/ɪˈkɑːnəmi/</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>/ˌiːkəˈnɑːmɪks/</t>
+  </si>
+  <si>
+    <t>economist</t>
+  </si>
+  <si>
+    <t>/ɪˈkɑːnəmɪst/</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>/det/</t>
+  </si>
+  <si>
+    <t>ichthyosaur</t>
+  </si>
+  <si>
+    <t>/ˈɪkθiəˌsɔːr/</t>
+  </si>
+  <si>
+    <t>resumé</t>
+  </si>
+  <si>
+    <t>/ˈrezəmeɪ/</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>/rɪˈzuːm/</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>/kriˈeɪt/</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>/rɪˈzɜːrv/</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>/ˌrezərˈveɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>/kənˈsɜːrv/</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>/ˌkɑːnsərˈveɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <t>/kənˈsɜːrvətɪv/</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>/ˈɪzrɪəl/</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>/siːs/</t>
+  </si>
+  <si>
+    <t>ceasefire</t>
+  </si>
+  <si>
+    <t>/ˈsiːsfaɪər/</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>/ˌstɪmjuˈleɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>/ˌsɪmjuˈleɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>/əˈfer/</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>/ˈekspɜːrt/</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>/ˈwiːkdeɪ/</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>/ˈwiːkend/</t>
+  </si>
+  <si>
+    <t>overturn</t>
+  </si>
+  <si>
+    <t>/ˌoʊvərˈtɜːrn/</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>/dɪˈspaɪt/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -748,6 +949,15 @@
   </si>
   <si>
     <t>Starship with humans for scale.</t>
+  </si>
+  <si>
+    <t>put on hold</t>
+  </si>
+  <si>
+    <t>搁置、延期、暂停</t>
+  </si>
+  <si>
+    <t>President Trump has said he doesn't want a "wasted meeting" after plans for a summit on Ukraine with Vladimir Putin in Bucharest were put on hold.</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1600,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1924,15 +2137,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2082,6 +2295,275 @@
       </c>
       <c r="B20" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2093,12 +2575,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2111,753 +2593,764 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:4">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:4">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>word</t>
   </si>
@@ -36,22 +36,220 @@
     <t>phonetic symbol</t>
   </si>
   <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>/ˌækəˈdemɪk/</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>/ˈækses/</t>
+  </si>
+  <si>
+    <t>affair</t>
+  </si>
+  <si>
+    <t>/əˈfer/</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>/ˈælɡərɪðəm/</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>/əˈses/</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>/baɪnd/</t>
+  </si>
+  <si>
+    <t>bound</t>
+  </si>
+  <si>
+    <t>/baʊnd/</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>/siːs/</t>
+  </si>
+  <si>
+    <t>ceasefire</t>
+  </si>
+  <si>
+    <t>/ˈsiːsfaɪər/</t>
+  </si>
+  <si>
+    <t>cellist</t>
+  </si>
+  <si>
+    <t>/ˈtʃelɪst/</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>/ˌkɑːnsərˈveɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <t>/kənˈsɜːrvətɪv/</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>/kənˈsɜːrv/</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>/kriˈeɪt/</t>
+  </si>
+  <si>
     <t>curiosity</t>
   </si>
   <si>
     <t>/ˌkjʊriˈɑːsəti/</t>
   </si>
   <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>/ˈkjʊriəs/</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>/det/</t>
+  </si>
+  <si>
+    <t>descendant</t>
+  </si>
+  <si>
+    <t>/dɪˈsendənt/</t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>/dɪˈspaɪt/</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>/ˌiːkəˈnɑːmɪks/</t>
+  </si>
+  <si>
+    <t>economist</t>
+  </si>
+  <si>
+    <t>/ɪˈkɑːnəmɪst/</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>/ɪˈkɑːnəmi/</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>/ˈekspɜːrt/</t>
+  </si>
+  <si>
+    <t>facade</t>
+  </si>
+  <si>
+    <t>/fəˈsɑːd/</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>/ˈfrʌstreɪtɪŋ/</t>
+  </si>
+  <si>
     <t>genre</t>
   </si>
   <si>
     <t>/ˈʒɑːnrə/</t>
   </si>
   <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>/ˈkjʊriəs/</t>
+    <t>heir</t>
+  </si>
+  <si>
+    <t>/er/</t>
+  </si>
+  <si>
+    <t>ichthyosaur</t>
+  </si>
+  <si>
+    <t>/ˈɪkθiəˌsɔːr/</t>
+  </si>
+  <si>
+    <t>idiosyncratic</t>
+  </si>
+  <si>
+    <t>/ˌɪdiəsɪŋˈkrætɪk/</t>
+  </si>
+  <si>
+    <t>indices</t>
+  </si>
+  <si>
+    <t>/ˈɪndɪsiːz/</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>/ˈaɪsəleɪt/</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>/ˈaɪsəleɪtɪd/</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>/ˈɪzrɪəl/</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>/liːst/</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>/les/</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>/ˈlɪt(ə)l/</t>
   </si>
   <si>
     <t>modular</t>
@@ -60,34 +258,94 @@
     <t>/ˈmɑːdʒələr/</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>descendant</t>
-  </si>
-  <si>
-    <t>indices</t>
-  </si>
-  <si>
-    <t>/ˈɪndɪsiːz/</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>/baɪnd/</t>
-  </si>
-  <si>
-    <t>bound</t>
-  </si>
-  <si>
-    <t>/baʊnd/</t>
+    <t>niche</t>
+  </si>
+  <si>
+    <t>/niːʃ/</t>
+  </si>
+  <si>
+    <t>overturn</t>
+  </si>
+  <si>
+    <t>/ˌoʊvərˈtɜːrn/</t>
+  </si>
+  <si>
+    <t>parliament</t>
+  </si>
+  <si>
+    <t>/ˈpɑːrləmənt/</t>
+  </si>
+  <si>
+    <t>penalize</t>
+  </si>
+  <si>
+    <t>/ˈpiːnəlaɪz/</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>/ˈpenəlti/</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>/ˌrezərˈveɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>/rɪˈzɜːrv/</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>/rɪˈzuːm/</t>
+  </si>
+  <si>
+    <t>resumé</t>
+  </si>
+  <si>
+    <t>/ˈrezəmeɪ/</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>/skrætʃ/</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>/ˌsɪmjuˈleɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>/spəˈsɪfɪk/</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>/ˌspesɪfɪˈkeɪʃ(ə)n/</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>/ˌspesɪˈfɪsəti/</t>
+  </si>
+  <si>
+    <t>stimulation</t>
+  </si>
+  <si>
+    <t>/ˌstɪmjuˈleɪʃ(ə)n/</t>
   </si>
   <si>
     <t>stretch</t>
@@ -96,223 +354,10 @@
     <t>/stretʃ/</t>
   </si>
   <si>
-    <t>scratch</t>
-  </si>
-  <si>
-    <t>/skrætʃ/</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>/ˈaɪsəleɪt/</t>
-  </si>
-  <si>
-    <t>isolated</t>
-  </si>
-  <si>
-    <t>/ˈaɪsəleɪtɪd/</t>
-  </si>
-  <si>
-    <t>assess</t>
-  </si>
-  <si>
-    <t>/əˈses/</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>/ˈækses/</t>
-  </si>
-  <si>
-    <t>academic</t>
-  </si>
-  <si>
-    <t>/ˌækəˈdemɪk/</t>
-  </si>
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>/ˈælɡərɪðəm/</t>
-  </si>
-  <si>
     <t>timely</t>
   </si>
   <si>
-    <t>idiosyncratic</t>
-  </si>
-  <si>
-    <t>/ˌɪdiəsɪŋˈkrætɪk/</t>
-  </si>
-  <si>
-    <t>parliament</t>
-  </si>
-  <si>
-    <t>/ˈpɑːrləmənt/</t>
-  </si>
-  <si>
-    <t>cellist</t>
-  </si>
-  <si>
-    <t>/ˈtʃelɪst/</t>
-  </si>
-  <si>
-    <t>facade</t>
-  </si>
-  <si>
-    <t>/fəˈsɑːd/</t>
-  </si>
-  <si>
-    <t>heir</t>
-  </si>
-  <si>
-    <t>/er/</t>
-  </si>
-  <si>
-    <t>niche</t>
-  </si>
-  <si>
-    <t>/niːʃ/</t>
-  </si>
-  <si>
-    <t>specific</t>
-  </si>
-  <si>
-    <t>/spəˈsɪfɪk/</t>
-  </si>
-  <si>
-    <t>penalty</t>
-  </si>
-  <si>
-    <t>/ˈpenəlti/</t>
-  </si>
-  <si>
-    <t>penalize</t>
-  </si>
-  <si>
-    <t>/ˈpiːnəlaɪz/</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>/ɪˈkɑːnəmi/</t>
-  </si>
-  <si>
-    <t>economics</t>
-  </si>
-  <si>
-    <t>/ˌiːkəˈnɑːmɪks/</t>
-  </si>
-  <si>
-    <t>economist</t>
-  </si>
-  <si>
-    <t>/ɪˈkɑːnəmɪst/</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>/det/</t>
-  </si>
-  <si>
-    <t>ichthyosaur</t>
-  </si>
-  <si>
-    <t>/ˈɪkθiəˌsɔːr/</t>
-  </si>
-  <si>
-    <t>resumé</t>
-  </si>
-  <si>
-    <t>/ˈrezəmeɪ/</t>
-  </si>
-  <si>
-    <t>resume</t>
-  </si>
-  <si>
-    <t>/rɪˈzuːm/</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>/kriˈeɪt/</t>
-  </si>
-  <si>
-    <t>reserve</t>
-  </si>
-  <si>
-    <t>/rɪˈzɜːrv/</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>/ˌrezərˈveɪʃ(ə)n/</t>
-  </si>
-  <si>
-    <t>conserve</t>
-  </si>
-  <si>
-    <t>/kənˈsɜːrv/</t>
-  </si>
-  <si>
-    <t>conservation</t>
-  </si>
-  <si>
-    <t>/ˌkɑːnsərˈveɪʃ(ə)n/</t>
-  </si>
-  <si>
-    <t>conservative</t>
-  </si>
-  <si>
-    <t>/kənˈsɜːrvətɪv/</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>/ˈɪzrɪəl/</t>
-  </si>
-  <si>
-    <t>cease</t>
-  </si>
-  <si>
-    <t>/siːs/</t>
-  </si>
-  <si>
-    <t>ceasefire</t>
-  </si>
-  <si>
-    <t>/ˈsiːsfaɪər/</t>
-  </si>
-  <si>
-    <t>stimulation</t>
-  </si>
-  <si>
-    <t>/ˌstɪmjuˈleɪʃ(ə)n/</t>
-  </si>
-  <si>
-    <t>simulation</t>
-  </si>
-  <si>
-    <t>/ˌsɪmjuˈleɪʃ(ə)n/</t>
-  </si>
-  <si>
-    <t>affair</t>
-  </si>
-  <si>
-    <t>/əˈfer/</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>/ˈekspɜːrt/</t>
+    <t>/ˈtaɪmli/</t>
   </si>
   <si>
     <t>weekday</t>
@@ -327,16 +372,10 @@
     <t>/ˈwiːkend/</t>
   </si>
   <si>
-    <t>overturn</t>
-  </si>
-  <si>
-    <t>/ˌoʊvərˈtɜːrn/</t>
-  </si>
-  <si>
-    <t>despite</t>
-  </si>
-  <si>
-    <t>/dɪˈspaɪt/</t>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>/ˈvɜːrsəs/</t>
   </si>
   <si>
     <t>Phrase</t>
@@ -753,6 +792,15 @@
     <t>美国用 zip code 表示邮政编码，其中 zip 是 Zone Improvement Plan 的首字母缩写</t>
   </si>
   <si>
+    <t>put on hold</t>
+  </si>
+  <si>
+    <t>搁置、延期、暂停</t>
+  </si>
+  <si>
+    <t>President Trump has said he doesn't want a "wasted meeting" after plans for a summit on Ukraine with Vladimir Putin in Bucharest were put on hold.</t>
+  </si>
+  <si>
     <t>put up with</t>
   </si>
   <si>
@@ -813,6 +861,15 @@
     <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：随时可能发生重大突破</t>
   </si>
   <si>
+    <t>run into</t>
+  </si>
+  <si>
+    <t>撞上，碰上、遇到困难，遭遇</t>
+  </si>
+  <si>
+    <t>You will often run into a situation where you know that a rule comes later in the stylesheet, but an earlier, conflicting rule is applied.</t>
+  </si>
+  <si>
     <t>set ... off</t>
   </si>
   <si>
@@ -951,13 +1008,13 @@
     <t>Starship with humans for scale.</t>
   </si>
   <si>
-    <t>put on hold</t>
-  </si>
-  <si>
-    <t>搁置、延期、暂停</t>
-  </si>
-  <si>
-    <t>President Trump has said he doesn't want a "wasted meeting" after plans for a summit on Ukraine with Vladimir Putin in Bucharest were put on hold.</t>
+    <t>get you in the mood</t>
+  </si>
+  <si>
+    <t>让你先感受一下气氛、帮你找找感觉、调动起你的兴趣</t>
+  </si>
+  <si>
+    <t>The following table shows a few isolated examples to get you in the mood.</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,9 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2137,10 +2191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2157,416 +2211,466 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:2">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:2">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:2">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:2">
       <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:2">
       <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:2">
       <c r="A52" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B57">
+    <sortCondition ref="A25"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2575,12 +2679,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2593,769 +2697,791 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:3">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:4">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D43" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:4">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>258</v>
+      </c>
+      <c r="D49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>269</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>272</v>
+      </c>
+      <c r="D54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" t="s">
-        <v>263</v>
+        <v>275</v>
+      </c>
+      <c r="C55" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
+      </c>
+      <c r="D56" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" t="s">
-        <v>273</v>
+        <v>284</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>288</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" t="s">
-        <v>279</v>
+        <v>291</v>
+      </c>
+      <c r="C60" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>297</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C63" t="s">
-        <v>287</v>
+        <v>300</v>
+      </c>
+      <c r="D63" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>305</v>
+      </c>
+      <c r="C65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B67" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" t="s">
-        <v>299</v>
+        <v>310</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
+      </c>
+      <c r="D68" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" t="s">
-        <v>309</v>
+        <v>320</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D69">
-    <sortCondition ref="A2:A69"/>
+  <sortState ref="A2:D71">
+    <sortCondition ref="A2:A71"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>word</t>
   </si>
@@ -378,6 +378,48 @@
     <t>/ˈvɜːrsəs/</t>
   </si>
   <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>/oʊˈpeɪk/</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>/oʊˈpæsəti/</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>/ˈfaɪnaɪt/</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>/ˈɪnfɪnət/</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>/əˈlaɪn/</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>/ɪnˈtrɪnzɪk/</t>
+  </si>
+  <si>
+    <t>extrinsic</t>
+  </si>
+  <si>
+    <t>/ɪksˈtrɪnzɪk/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -1015,6 +1057,24 @@
   </si>
   <si>
     <t>The following table shows a few isolated examples to get you in the mood.</t>
+  </si>
+  <si>
+    <t>over and over</t>
+  </si>
+  <si>
+    <t>反复、再三、一次又一次</t>
+  </si>
+  <si>
+    <t>In programming, a function is a piece of code that does a specific task. Functions are useful because you can write code once then reuse it many times instead of writing the same logic over and over.</t>
+  </si>
+  <si>
+    <t>scale down</t>
+  </si>
+  <si>
+    <t>按比例缩小</t>
+  </si>
+  <si>
+    <t>A common use of max-width is to cause images to scale down if there is not enough space to display them at their intrinsic width, while making sure they don't become larger than that width.</t>
   </si>
 </sst>
 </file>
@@ -2191,10 +2251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2665,6 +2725,62 @@
       </c>
       <c r="B58" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2679,12 +2795,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2697,786 +2813,808 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:4">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:4">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" ht="27" spans="1:4">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:4">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C55" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D59" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B61" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D61" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C71" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="D72" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
     <t>word</t>
   </si>
@@ -420,6 +420,18 @@
     <t>/ɪksˈtrɪnzɪk/</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>/feɪl/</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>/fɔːl/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -456,7 +468,7 @@
     <t>除其他事项之外、此外</t>
   </si>
   <si>
-    <t>用于表示某事物或情况不仅仅包括所提到的内容，还包括其他方面</t>
+    <t>用于表示某事物或情况不仅仅包括所提到的内容，还包括其他方面。</t>
   </si>
   <si>
     <t>apply to</t>
@@ -483,6 +495,15 @@
     <t>The CSS box model as a whole applies to block boxes and defines how the different parts of a box — margin, border, padding, and content — work together to create a box that you can see on a page.</t>
   </si>
   <si>
+    <t>as with ...</t>
+  </si>
+  <si>
+    <t>正如、与…一样、就…来说</t>
+  </si>
+  <si>
+    <t>As with any shorthand property, any individual value that is not specified is set to its corresponding initial value</t>
+  </si>
+  <si>
     <t>at the speed of</t>
   </si>
   <si>
@@ -504,7 +525,7 @@
     <t>具有某种特定的品质或特征</t>
   </si>
   <si>
-    <t>指某人或某物天生或被赋予了某种特定的品质或特征</t>
+    <t>指某人或某物天生或被赋予了某种特定的品质或特征。</t>
   </si>
   <si>
     <t>Sri Lanka's tea country is endowed with cascading waterfalls, rising mountain tops, natural beauty and diverse flora and fauna.</t>
@@ -528,7 +549,7 @@
     <t>注定要</t>
   </si>
   <si>
-    <t>表示某事是命中注定或计划好的，通常用于描述某人或某事的目的或预期结果</t>
+    <t>表示某事是命中注定或计划好的，通常用于描述某人或某事的目的或预期结果。</t>
   </si>
   <si>
     <t>be named after</t>
@@ -561,7 +582,7 @@
     <t>吹嘘、夸耀</t>
   </si>
   <si>
-    <t>表示过分或虚假地表达自己的成就或优点</t>
+    <t>表示过分或虚假地表达自己的成就或优点。</t>
   </si>
   <si>
     <t>cascading waterfalls</t>
@@ -582,7 +603,7 @@
     <t>兜了一圈回到原点、实现了闭环</t>
   </si>
   <si>
-    <t>指事情经过变化后回归本质，但有了提升或扩展</t>
+    <t>指事情经过变化后回归本质，但有了提升或扩展。</t>
   </si>
   <si>
     <t>And then we came full circle because Unity enabled us to deploy to the web in addition to mobile, all from one codebase.</t>
@@ -594,7 +615,7 @@
     <t>随着……而来</t>
   </si>
   <si>
-    <t>指某种情况或状态伴随着某种经历或身份而自然发生</t>
+    <t>指某种情况或状态伴随着某种经历或身份而自然发生。</t>
   </si>
   <si>
     <t>commit to</t>
@@ -603,7 +624,7 @@
     <t>承诺、致力于、投入、专注于</t>
   </si>
   <si>
-    <t>表示对某事物或某人的决心和承诺，通常表示愿意为之付出时间、精力或资源</t>
+    <t>表示对某事物或某人的决心和承诺，通常表示愿意为之付出时间、精力或资源。</t>
   </si>
   <si>
     <t>credit on ... to sb</t>
@@ -627,7 +648,7 @@
     <t>立即投入</t>
   </si>
   <si>
-    <t>指迅速开始做某事，不浪费时间</t>
+    <t>指迅速开始做某事，不浪费时间。</t>
   </si>
   <si>
     <t>You can start with the tutorial or dive right into more detailed documentation.</t>
@@ -660,7 +681,7 @@
     <t>几乎同样长的时间里</t>
   </si>
   <si>
-    <t>可以用它来避免重复说完整数字，显得自然口语化</t>
+    <t>可以用它来避免重复说完整数字，显得自然口语化。</t>
   </si>
   <si>
     <t>for eons</t>
@@ -693,19 +714,28 @@
     <t>从零开始、白手起家</t>
   </si>
   <si>
-    <t>旧时的体育竞赛中人们会在地面上划一条线作为起点，这条线就是 scratch（用指甲或棍子“划”出来的）</t>
+    <t>旧时的体育竞赛中人们会在地面上划一条线作为起点，这条线就是 scratch（用指甲或棍子“划”出来的）。</t>
   </si>
   <si>
     <t>I learned German from scratch in six months.</t>
   </si>
   <si>
+    <t>get you in the mood</t>
+  </si>
+  <si>
+    <t>让你先感受一下气氛、帮你找找感觉、调动起你的兴趣</t>
+  </si>
+  <si>
+    <t>The following table shows a few isolated examples to get you in the mood.</t>
+  </si>
+  <si>
     <t>given that</t>
   </si>
   <si>
     <t>鉴于</t>
   </si>
   <si>
-    <t>表示在某种条件或情况下，用于引出一个已知的事实或前提</t>
+    <t>表示在某种条件或情况下，用于引出一个已知的事实或前提。</t>
   </si>
   <si>
     <t>go to great length</t>
@@ -714,7 +744,7 @@
     <t>不遗余力</t>
   </si>
   <si>
-    <t>指为达到某个目的而付出极大的努力和付出</t>
+    <t>指为达到某个目的而付出极大的努力和付出。</t>
   </si>
   <si>
     <t>got both</t>
@@ -723,7 +753,7 @@
     <t>两者都有</t>
   </si>
   <si>
-    <t>表示拥有两个或两种事物</t>
+    <t>表示拥有两个或两种事物。</t>
   </si>
   <si>
     <t>happen to be</t>
@@ -741,7 +771,7 @@
     <t>连接、搭讪、提供帮助</t>
   </si>
   <si>
-    <t>指在物理上或功能上将两个或多个设备、系统或组件连接在一起或指为某人提供帮助、支持或资源</t>
+    <t>指在物理上或功能上将两个或多个设备、系统或组件连接在一起或指为某人提供帮助、支持或资源。</t>
   </si>
   <si>
     <t>in a nutshell</t>
@@ -750,7 +780,7 @@
     <t>简而言之</t>
   </si>
   <si>
-    <t>is abbreviated as</t>
+    <t>be abbreviated as</t>
   </si>
   <si>
     <t>被缩写成</t>
@@ -789,7 +819,7 @@
     <t>即时地、动态地</t>
   </si>
   <si>
-    <t>边运行边处理，而不是预先准备好的</t>
+    <t>边运行边处理，而不是预先准备好的。</t>
   </si>
   <si>
     <t>The API is created on the fly, no code generation necessary.</t>
@@ -801,7 +831,7 @@
     <t>继续前往</t>
   </si>
   <si>
-    <t>注意 onward to 并不是传统意义上的固定搭配而是省略动词的感叹/号召式表达，属于惯用修辞</t>
+    <t>注意 onward to 并不是传统意义上的固定搭配而是省略动词的感叹/号召式表达，属于惯用修辞。</t>
   </si>
   <si>
     <t>Onward to chapter 1! (Let’s go onward to chapter 1!)</t>
@@ -819,6 +849,15 @@
     <t>Open-ended demands are a mandate for ever-expanding government bureaucracies with ever-expanding budgets and powers.</t>
   </si>
   <si>
+    <t>over and over</t>
+  </si>
+  <si>
+    <t>反复、再三、一次又一次</t>
+  </si>
+  <si>
+    <t>In programming, a function is a piece of code that does a specific task. Functions are useful because you can write code once then reuse it many times instead of writing the same logic over and over.</t>
+  </si>
+  <si>
     <t>over time</t>
   </si>
   <si>
@@ -831,7 +870,7 @@
     <t>邮政编码</t>
   </si>
   <si>
-    <t>美国用 zip code 表示邮政编码，其中 zip 是 Zone Improvement Plan 的首字母缩写</t>
+    <t>美国用 zip code 表示邮政编码，其中 zip 是 Zone Improvement Plan 的首字母缩写。</t>
   </si>
   <si>
     <t>put on hold</t>
@@ -900,7 +939,7 @@
     <t>发展到适合某事发生的条件</t>
   </si>
   <si>
-    <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：随时可能发生重大突破</t>
+    <t>ripe for innovation：创新的条件已经具备、ripe for breakthrough：随时可能发生重大突破。</t>
   </si>
   <si>
     <t>run into</t>
@@ -912,6 +951,15 @@
     <t>You will often run into a situation where you know that a rule comes later in the stylesheet, but an earlier, conflicting rule is applied.</t>
   </si>
   <si>
+    <t>scale down</t>
+  </si>
+  <si>
+    <t>按比例缩小</t>
+  </si>
+  <si>
+    <t>A common use of max-width is to cause images to scale down if there is not enough space to display them at their intrinsic width, while making sure they don't become larger than that width.</t>
+  </si>
+  <si>
     <t>set ... off</t>
   </si>
   <si>
@@ -948,7 +996,7 @@
     <t>伸出某物、坚持下去</t>
   </si>
   <si>
-    <t>指将某物从表面或边缘伸出来或指继续做某事，尽管可能困难或不愉快</t>
+    <t>指将某物从表面或边缘伸出来或指继续做某事，尽管可能困难或不愉快。</t>
   </si>
   <si>
     <t>strive to</t>
@@ -960,6 +1008,18 @@
     <t>Django's template system has several powerful features but strives to stay simple enough for non-programmers to use.</t>
   </si>
   <si>
+    <t>swap out</t>
+  </si>
+  <si>
+    <t>换掉、换成</t>
+  </si>
+  <si>
+    <t>“swap out” 和 “replace” 意思非常接近，经常可以互换。但 “swap out” 带有更强的 “即插即用”、“快速更换同类型物品” 的意味。"Swap out" 通常暗示被替换的东西是 模块化的、标准化的、可以轻松拆卸和安装的。</t>
+  </si>
+  <si>
+    <t>Try editing the example and swapping out the specified colors with any available `&lt;color&gt;` values.</t>
+  </si>
+  <si>
     <t>sweep you off your feet</t>
   </si>
   <si>
@@ -1023,7 +1083,7 @@
     <t>在表面之下</t>
   </si>
   <si>
-    <t>指在某物的内部工作过程中</t>
+    <t>指在某物的内部工作过程中。</t>
   </si>
   <si>
     <t>How does it work under the hood?</t>
@@ -1044,37 +1104,22 @@
     <t>用…当作比例参考</t>
   </si>
   <si>
-    <t>用于直观体现物体的大小、壮观、规模感</t>
+    <t>用于直观体现物体的大小、壮观、规模感。</t>
   </si>
   <si>
     <t>Starship with humans for scale.</t>
   </si>
   <si>
-    <t>get you in the mood</t>
-  </si>
-  <si>
-    <t>让你先感受一下气氛、帮你找找感觉、调动起你的兴趣</t>
-  </si>
-  <si>
-    <t>The following table shows a few isolated examples to get you in the mood.</t>
-  </si>
-  <si>
-    <t>over and over</t>
-  </si>
-  <si>
-    <t>反复、再三、一次又一次</t>
-  </si>
-  <si>
-    <t>In programming, a function is a piece of code that does a specific task. Functions are useful because you can write code once then reuse it many times instead of writing the same logic over and over.</t>
-  </si>
-  <si>
-    <t>scale down</t>
-  </si>
-  <si>
-    <t>按比例缩小</t>
-  </si>
-  <si>
-    <t>A common use of max-width is to cause images to scale down if there is not enough space to display them at their intrinsic width, while making sure they don't become larger than that width.</t>
+    <t>be set to</t>
+  </si>
+  <si>
+    <t>即将、将要、注定会</t>
+  </si>
+  <si>
+    <t>指已经处于一种准备就绪、即将发生某种行动的状态。</t>
+  </si>
+  <si>
+    <t>Elon Musk, the world's richest person, is set to be richer.</t>
   </si>
 </sst>
 </file>
@@ -2251,10 +2296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2781,6 +2826,22 @@
       </c>
       <c r="B65" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2795,12 +2856,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2813,813 +2874,852 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>216</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:4">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="D31" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" t="s">
-        <v>228</v>
+        <v>231</v>
+      </c>
+      <c r="D34" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:4">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" ht="27" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:4">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" t="s">
-        <v>278</v>
+        <v>282</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:4">
+        <v>285</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="C54" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:4">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s">
-        <v>292</v>
-      </c>
-      <c r="D56" t="s">
-        <v>293</v>
+        <v>296</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D57" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
+      </c>
+      <c r="C58" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
-      </c>
-      <c r="C59" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" t="s">
-        <v>306</v>
+        <v>308</v>
+      </c>
+      <c r="D60" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="C63" t="s">
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>317</v>
+        <v>321</v>
+      </c>
+      <c r="C64" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
-      </c>
-      <c r="C65" t="s">
-        <v>320</v>
+        <v>324</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="C66" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B67" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
+      </c>
+      <c r="D67" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D68" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B69" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" t="s">
-        <v>331</v>
-      </c>
-      <c r="D69" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B70" t="s">
-        <v>334</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="C74" t="s">
+        <v>351</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" t="s">
+        <v>354</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>360</v>
+      </c>
+      <c r="B77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C77" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D71">
-    <sortCondition ref="A2:A71"/>
+  <sortState ref="A2:D76">
+    <sortCondition ref="A2:A76"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
   <si>
     <t>word</t>
   </si>
@@ -60,6 +60,12 @@
     <t>/ˈælɡərɪðəm/</t>
   </si>
   <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>/əˈlaɪn/</t>
+  </si>
+  <si>
     <t>assess</t>
   </si>
   <si>
@@ -174,12 +180,36 @@
     <t>/ˈekspɜːrt/</t>
   </si>
   <si>
+    <t>extrinsic</t>
+  </si>
+  <si>
+    <t>/ɪksˈtrɪnzɪk/</t>
+  </si>
+  <si>
     <t>facade</t>
   </si>
   <si>
     <t>/fəˈsɑːd/</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>/feɪl/</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>/fɔːl/</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>/ˈfaɪnaɪt/</t>
+  </si>
+  <si>
     <t>frustrating</t>
   </si>
   <si>
@@ -216,6 +246,18 @@
     <t>/ˈɪndɪsiːz/</t>
   </si>
   <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>/ˈɪnfɪnət/</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>/ɪnˈtrɪnzɪk/</t>
+  </si>
+  <si>
     <t>isolate</t>
   </si>
   <si>
@@ -264,6 +306,18 @@
     <t>/niːʃ/</t>
   </si>
   <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>/oʊˈpæsəti/</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>/oʊˈpeɪk/</t>
+  </si>
+  <si>
     <t>overturn</t>
   </si>
   <si>
@@ -360,6 +414,27 @@
     <t>/ˈtaɪmli/</t>
   </si>
   <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>/vəˈraɪəti/</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>/ˈveri/</t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>/ˈvɜːrsəs/</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
     <t>weekday</t>
   </si>
   <si>
@@ -372,66 +447,6 @@
     <t>/ˈwiːkend/</t>
   </si>
   <si>
-    <t>versus</t>
-  </si>
-  <si>
-    <t>/ˈvɜːrsəs/</t>
-  </si>
-  <si>
-    <t>opaque</t>
-  </si>
-  <si>
-    <t>/oʊˈpeɪk/</t>
-  </si>
-  <si>
-    <t>opacity</t>
-  </si>
-  <si>
-    <t>/oʊˈpæsəti/</t>
-  </si>
-  <si>
-    <t>finite</t>
-  </si>
-  <si>
-    <t>/ˈfaɪnaɪt/</t>
-  </si>
-  <si>
-    <t>infinite</t>
-  </si>
-  <si>
-    <t>/ˈɪnfɪnət/</t>
-  </si>
-  <si>
-    <t>align</t>
-  </si>
-  <si>
-    <t>/əˈlaɪn/</t>
-  </si>
-  <si>
-    <t>intrinsic</t>
-  </si>
-  <si>
-    <t>/ɪnˈtrɪnzɪk/</t>
-  </si>
-  <si>
-    <t>extrinsic</t>
-  </si>
-  <si>
-    <t>/ɪksˈtrɪnzɪk/</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>/feɪl/</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>/fɔːl/</t>
-  </si>
-  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -519,6 +534,15 @@
     <t>在当时</t>
   </si>
   <si>
+    <t>be abbreviated as</t>
+  </si>
+  <si>
+    <t>被缩写成</t>
+  </si>
+  <si>
+    <t>[əˈbriːvieɪtɪd]</t>
+  </si>
+  <si>
     <t>be endowed with</t>
   </si>
   <si>
@@ -567,6 +591,18 @@
     <t>Most other game development tools that have a central visual editor are also saddled with limited and inflexible scripting support, but Unity doesn’t suffer from that disadvantage.</t>
   </si>
   <si>
+    <t>be set to</t>
+  </si>
+  <si>
+    <t>即将、将要、注定会</t>
+  </si>
+  <si>
+    <t>指已经处于一种准备就绪、即将发生某种行动的状态。</t>
+  </si>
+  <si>
+    <t>Elon Musk, the world's richest person, is set to be richer.</t>
+  </si>
+  <si>
     <t>bounded by</t>
   </si>
   <si>
@@ -780,13 +816,16 @@
     <t>简而言之</t>
   </si>
   <si>
-    <t>be abbreviated as</t>
-  </si>
-  <si>
-    <t>被缩写成</t>
-  </si>
-  <si>
-    <t>[əˈbriːvieɪtɪd]</t>
+    <t>in due course</t>
+  </si>
+  <si>
+    <t>在适当的时间、按照合理的顺序或在适当的时候</t>
+  </si>
+  <si>
+    <t>通常用于表示某事将会在合适的时候发生或完成，而不是立即或马上。</t>
+  </si>
+  <si>
+    <t>The BBC says it will respond in due course to a threat of legal action over a documentary which misrepresented a speech made by President Trump.</t>
   </si>
   <si>
     <t>many years' worth of ...</t>
@@ -1108,18 +1147,6 @@
   </si>
   <si>
     <t>Starship with humans for scale.</t>
-  </si>
-  <si>
-    <t>be set to</t>
-  </si>
-  <si>
-    <t>即将、将要、注定会</t>
-  </si>
-  <si>
-    <t>指已经处于一种准备就绪、即将发生某种行动的状态。</t>
-  </si>
-  <si>
-    <t>Elon Musk, the world's richest person, is set to be richer.</t>
   </si>
 </sst>
 </file>
@@ -2296,10 +2323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2360,11 +2387,11 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2372,11 +2399,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="14.25" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2428,11 +2455,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2444,11 +2471,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" ht="15" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2516,11 +2543,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2548,19 +2575,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="15" spans="1:2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2588,7 +2615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="15" spans="1:2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2604,11 +2631,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2628,11 +2655,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2648,7 +2675,7 @@
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2660,11 +2687,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" ht="15" spans="1:2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2700,11 +2727,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" ht="15" spans="1:2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2716,11 +2743,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2732,11 +2759,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2788,11 +2815,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" ht="15" spans="1:2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2804,11 +2831,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2844,9 +2871,33 @@
         <v>133</v>
       </c>
     </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B57">
-    <sortCondition ref="A25"/>
+  <sortState ref="A2:B70">
+    <sortCondition ref="A2:A70"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2856,12 +2907,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2874,852 +2925,866 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="D17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
       <c r="A22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>203</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" t="s">
-        <v>201</v>
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:4">
+        <v>223</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>228</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:4">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>231</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="D35" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+      <c r="D36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:4">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>255</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>264</v>
+      </c>
+      <c r="D43" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>267</v>
+      </c>
+      <c r="D44" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D45" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" ht="27" spans="1:4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="D47" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="C48" t="s">
+        <v>280</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:4">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>283</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
+        <v>287</v>
+      </c>
+      <c r="D50" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" t="s">
-        <v>286</v>
+        <v>292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>295</v>
+      </c>
+      <c r="D53" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54" t="s">
-        <v>291</v>
+        <v>298</v>
+      </c>
+      <c r="D54" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
-      </c>
-      <c r="C55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="1:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:4">
       <c r="A58" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
-      </c>
-      <c r="C58" t="s">
-        <v>303</v>
+        <v>309</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D60" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="C60" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>314</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
+      </c>
+      <c r="D62" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D63" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s">
-        <v>321</v>
-      </c>
-      <c r="C64" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>330</v>
+      </c>
+      <c r="C65" t="s">
+        <v>331</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>341</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
+        <v>344</v>
+      </c>
+      <c r="D69" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" t="s">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="D70" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
-        <v>344</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>345</v>
+        <v>352</v>
+      </c>
+      <c r="C72" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
-      </c>
-      <c r="D73" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>350</v>
-      </c>
-      <c r="C74" t="s">
-        <v>351</v>
-      </c>
-      <c r="D74" t="s">
-        <v>352</v>
+        <v>357</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="D75" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D76" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" t="s">
-        <v>363</v>
+        <v>367</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D76">
-    <sortCondition ref="A2:A76"/>
+  <sortState ref="A2:D78">
+    <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="381">
   <si>
     <t>word</t>
   </si>
@@ -72,6 +72,18 @@
     <t>/əˈses/</t>
   </si>
   <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>/əˈsaɪn/</t>
+  </si>
+  <si>
+    <t>axis</t>
+  </si>
+  <si>
+    <t>/ˈæksɪs/</t>
+  </si>
+  <si>
     <t>bind</t>
   </si>
   <si>
@@ -120,6 +132,12 @@
     <t>/kənˈsɜːrv/</t>
   </si>
   <si>
+    <t>convict</t>
+  </si>
+  <si>
+    <t>/kənˈvɪkt/</t>
+  </si>
+  <si>
     <t>create</t>
   </si>
   <si>
@@ -144,6 +162,12 @@
     <t>/det/</t>
   </si>
   <si>
+    <t>democratic</t>
+  </si>
+  <si>
+    <t>/ˌdeməˈkrætɪk/</t>
+  </si>
+  <si>
     <t>descendant</t>
   </si>
   <si>
@@ -516,7 +540,7 @@
     <t>正如、与…一样、就…来说</t>
   </si>
   <si>
-    <t>As with any shorthand property, any individual value that is not specified is set to its corresponding initial value</t>
+    <t>As with any shorthand property, any individual value that is not specified is set to its corresponding initial value.</t>
   </si>
   <si>
     <t>at the speed of</t>
@@ -2323,10 +2347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2395,15 +2419,15 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2411,15 +2435,15 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2463,19 +2487,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2487,19 +2511,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" ht="15" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" ht="15" spans="1:2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2583,11 +2607,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2647,11 +2671,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" ht="15" spans="1:2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2675,7 +2699,7 @@
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2687,11 +2711,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2707,7 +2731,7 @@
       <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2719,19 +2743,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" ht="15" spans="1:2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2759,11 +2783,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" ht="15" spans="1:2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2815,11 +2839,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2831,11 +2855,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2847,11 +2871,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" ht="15" spans="1:2">
       <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2863,11 +2887,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2876,28 +2900,60 @@
         <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B70">
-    <sortCondition ref="A2:A70"/>
+  <sortState ref="A2:B74">
+    <sortCondition ref="A2:A74"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2909,10 +2965,10 @@
   <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D78"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2925,861 +2981,861 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:4">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:4">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:4">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B51" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D53" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:4">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D59" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D65" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B74" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D76" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
   <si>
     <t>word</t>
   </si>
@@ -471,6 +471,18 @@
     <t>/ˈwiːkend/</t>
   </si>
   <si>
+    <t>bounty</t>
+  </si>
+  <si>
+    <t>/ˈbaʊnti/</t>
+  </si>
+  <si>
+    <t>distort</t>
+  </si>
+  <si>
+    <t>/dɪˈstɔːrt/</t>
+  </si>
+  <si>
     <t>Phrase</t>
   </si>
   <si>
@@ -1171,6 +1183,30 @@
   </si>
   <si>
     <t>Starship with humans for scale.</t>
+  </si>
+  <si>
+    <t>be intended for</t>
+  </si>
+  <si>
+    <t>被设计给/被用来给/是为了…而准备的</t>
+  </si>
+  <si>
+    <t>表示某物的预期用途、目标用户或目的。</t>
+  </si>
+  <si>
+    <t>MySQL Server is intended for mission-critical, heavy-load production systems as well as for embedding into mass-deployed software.</t>
+  </si>
+  <si>
+    <t>work toward</t>
+  </si>
+  <si>
+    <t>朝着某个方向努力、逐步实现</t>
+  </si>
+  <si>
+    <t>强调这是一个进行中的、有意识的目标，而不是已经完成的状态。</t>
+  </si>
+  <si>
+    <t>One of our main goals with the product is to continue to work toward compliance with the SQL standard, but without sacrificing speed or reliability.</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1653,19 +1689,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2347,10 +2383,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2949,6 +2985,22 @@
       </c>
       <c r="B74" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2963,12 +3015,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2981,861 +3033,889 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:4">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:4">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D47" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:4">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:4">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D59" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C60" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D65" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C66" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D68" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D69" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D76" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C78" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D78" t="s">
-        <v>380</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>389</v>
+      </c>
+      <c r="B80" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/english/phrases.xlsx
+++ b/english/phrases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="29868" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
   <si>
     <t>word</t>
   </si>
@@ -1207,6 +1207,15 @@
   </si>
   <si>
     <t>One of our main goals with the product is to continue to work toward compliance with the SQL standard, but without sacrificing speed or reliability.</t>
+  </si>
+  <si>
+    <t>round off</t>
+  </si>
+  <si>
+    <t>使完美、完善</t>
+  </si>
+  <si>
+    <t>We round off the module by looking at applying custom fonts to your page, and styling lists and links.</t>
   </si>
 </sst>
 </file>
@@ -2385,14 +2394,14 @@
   <sheetPr/>
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="15.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2475,7 +2484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -3015,17 +3024,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="32.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
@@ -3233,7 +3242,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:4">
+    <row r="19" ht="15.6" spans="1:4">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -3260,7 +3269,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:4">
+    <row r="22" ht="15.6" spans="1:4">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>242</v>
       </c>
@@ -3455,7 +3464,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" ht="40.5" spans="1:4">
+    <row r="40" ht="43.2" spans="1:4">
       <c r="A40" t="s">
         <v>266</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:4">
+    <row r="49" ht="28.8" spans="1:4">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>320</v>
       </c>
@@ -3916,6 +3925,17 @@
       </c>
       <c r="D80" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
